--- a/武汉P2P竞品分析-2015.11.17.xlsx
+++ b/武汉P2P竞品分析-2015.11.17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="竞品数据筛选" sheetId="1" r:id="rId1"/>
@@ -1062,26 +1062,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1451,7 +1451,7 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:35" s="15" customFormat="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -1472,99 +1472,99 @@
       <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="46" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="48" t="s">
+      <c r="T5" s="45"/>
+      <c r="U5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44" t="s">
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC5" s="44" t="s">
+      <c r="AC5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" s="44" t="s">
+      <c r="AD5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="44" t="s">
+      <c r="AE5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="44"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="19" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="49"/>
       <c r="S6" s="20" t="s">
         <v>45</v>
       </c>
       <c r="T6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="48"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="18">
         <v>2010</v>
       </c>
@@ -1583,14 +1583,14 @@
       <c r="AA6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
@@ -2134,6 +2134,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="AD5:AD6"/>
@@ -2150,11 +2155,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
